--- a/app/data/mould_new/InputTableB.xlsx
+++ b/app/data/mould_new/InputTableB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaglezpf/Mega/OMNILab/强生医疗/Project/round1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaglezpf/Mega/OMNILab/强生医疗/onlineTest/round1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1740BA41-7AA6-ED4B-8D91-0DC4D247F1BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A38CD5-247A-A34A-8FF3-6783B214367C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5960" yWindow="460" windowWidth="27840" windowHeight="16260" xr2:uid="{83FF1E4D-4CF2-814B-B90C-C608CFC5FC36}"/>
   </bookViews>
@@ -474,7 +474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -497,6 +497,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -817,15 +820,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B742813F-993E-9048-BE21-F8D7702A7BB0}">
   <dimension ref="A1:AM70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AM5" sqref="AM5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
@@ -857,7 +861,7 @@
       <c r="B1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -976,8 +980,8 @@
       <c r="B2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="4">
-        <v>5000</v>
+      <c r="C2" s="8">
+        <v>2500</v>
       </c>
       <c r="D2" s="4">
         <v>1.2</v>
@@ -1000,14 +1004,14 @@
       </c>
       <c r="J2" s="2">
         <f>C2*G2/1000</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2" s="2">
         <f>C2*G2*(S2*Q2 + W2*V2)*0.08</f>
-        <v>29440</v>
+        <v>14720</v>
       </c>
       <c r="M2" s="2">
         <v>1000</v>
@@ -1033,7 +1037,7 @@
       </c>
       <c r="T2" s="2">
         <f>C2*G2*S2</f>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="U2" s="2">
         <v>150</v>
@@ -1049,11 +1053,11 @@
       </c>
       <c r="Y2" s="2">
         <f t="shared" ref="Y2:Y33" si="0">C2*G2</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z2" s="2">
         <f>Y2</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA2" s="2">
         <f>Z2-Y2</f>
@@ -1077,11 +1081,11 @@
       </c>
       <c r="AF2" s="5">
         <f t="shared" ref="AF2:AF33" si="3">J2</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG2" s="5">
         <f t="shared" ref="AG2:AG33" si="4">L2</f>
-        <v>29440</v>
+        <v>14720</v>
       </c>
       <c r="AH2" s="5">
         <f t="shared" ref="AH2:AH33" si="5">M2</f>
@@ -1096,13 +1100,13 @@
         <v>150</v>
       </c>
       <c r="AK2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -1112,8 +1116,8 @@
       <c r="B3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="4">
-        <v>4500</v>
+      <c r="C3" s="8">
+        <v>2250</v>
       </c>
       <c r="D3" s="4">
         <v>1.2</v>
@@ -1136,14 +1140,14 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J66" si="9">C3*G3/1000</f>
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" ref="L3:L66" si="10">C3*G3*(S3*Q3 + W3*V3)*0.08</f>
-        <v>26496</v>
+        <v>13248</v>
       </c>
       <c r="M3" s="2">
         <v>1000</v>
@@ -1169,7 +1173,7 @@
       </c>
       <c r="T3" s="2">
         <f t="shared" ref="T3:T66" si="12">C3*G3*S3</f>
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="U3" s="2">
         <v>150</v>
@@ -1182,15 +1186,15 @@
       </c>
       <c r="X3" s="2">
         <f>C3*G3*W3</f>
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" ref="Z3:Z66" si="13">Y3</f>
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" ref="AA3:AA66" si="14">Z3-Y3</f>
@@ -1214,11 +1218,11 @@
       </c>
       <c r="AF3" s="5">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="AG3" s="5">
         <f t="shared" si="4"/>
-        <v>26496</v>
+        <v>13248</v>
       </c>
       <c r="AH3" s="5">
         <f t="shared" si="5"/>
@@ -1233,13 +1237,13 @@
         <v>150</v>
       </c>
       <c r="AK3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1249,8 +1253,8 @@
       <c r="B4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="4">
-        <v>3000</v>
+      <c r="C4" s="8">
+        <v>1500</v>
       </c>
       <c r="D4" s="4">
         <v>1.2</v>
@@ -1273,14 +1277,14 @@
       </c>
       <c r="J4" s="2">
         <f t="shared" si="9"/>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="10"/>
-        <v>17664</v>
+        <v>8832</v>
       </c>
       <c r="M4" s="2">
         <v>1000</v>
@@ -1306,7 +1310,7 @@
       </c>
       <c r="T4" s="2">
         <f t="shared" si="12"/>
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="U4" s="2">
         <v>150</v>
@@ -1319,15 +1323,15 @@
       </c>
       <c r="X4" s="2">
         <f t="shared" ref="X4:X67" si="17">C4*G4*W4</f>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="13"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="14"/>
@@ -1351,11 +1355,11 @@
       </c>
       <c r="AF4" s="5">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AG4" s="5">
         <f t="shared" si="4"/>
-        <v>17664</v>
+        <v>8832</v>
       </c>
       <c r="AH4" s="5">
         <f t="shared" si="5"/>
@@ -1376,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -1386,8 +1390,8 @@
       <c r="B5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="4">
-        <v>2500</v>
+      <c r="C5" s="8">
+        <v>1250</v>
       </c>
       <c r="D5" s="4">
         <v>1.2</v>
@@ -1410,14 +1414,14 @@
       </c>
       <c r="J5" s="2">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="10"/>
-        <v>14720</v>
+        <v>7360</v>
       </c>
       <c r="M5" s="2">
         <v>1000</v>
@@ -1443,7 +1447,7 @@
       </c>
       <c r="T5" s="2">
         <f t="shared" si="12"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="U5" s="2">
         <v>150</v>
@@ -1456,15 +1460,15 @@
       </c>
       <c r="X5" s="2">
         <f t="shared" si="17"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="14"/>
@@ -1488,11 +1492,11 @@
       </c>
       <c r="AF5" s="5">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG5" s="5">
         <f t="shared" si="4"/>
-        <v>14720</v>
+        <v>7360</v>
       </c>
       <c r="AH5" s="5">
         <f t="shared" si="5"/>
@@ -1523,8 +1527,8 @@
       <c r="B6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="4">
-        <v>2000</v>
+      <c r="C6" s="8">
+        <v>1000</v>
       </c>
       <c r="D6" s="4">
         <v>1.2</v>
@@ -1547,14 +1551,14 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" si="9"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="10"/>
-        <v>11776</v>
+        <v>5888</v>
       </c>
       <c r="M6" s="2">
         <v>1000</v>
@@ -1580,7 +1584,7 @@
       </c>
       <c r="T6" s="2">
         <f t="shared" si="12"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="U6" s="2">
         <v>150</v>
@@ -1593,15 +1597,15 @@
       </c>
       <c r="X6" s="2">
         <f t="shared" si="17"/>
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="13"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="14"/>
@@ -1625,11 +1629,11 @@
       </c>
       <c r="AF6" s="5">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AG6" s="5">
         <f t="shared" si="4"/>
-        <v>11776</v>
+        <v>5888</v>
       </c>
       <c r="AH6" s="5">
         <f t="shared" si="5"/>
@@ -1660,8 +1664,8 @@
       <c r="B7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="4">
-        <v>1500</v>
+      <c r="C7" s="8">
+        <v>750</v>
       </c>
       <c r="D7" s="4">
         <v>1.2</v>
@@ -1684,14 +1688,14 @@
       </c>
       <c r="J7" s="2">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="10"/>
-        <v>8832</v>
+        <v>4416</v>
       </c>
       <c r="M7" s="2">
         <v>1000</v>
@@ -1717,7 +1721,7 @@
       </c>
       <c r="T7" s="2">
         <f t="shared" si="12"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="U7" s="2">
         <v>150</v>
@@ -1730,15 +1734,15 @@
       </c>
       <c r="X7" s="2">
         <f t="shared" si="17"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="14"/>
@@ -1762,11 +1766,11 @@
       </c>
       <c r="AF7" s="5">
         <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AG7" s="5">
         <f t="shared" si="4"/>
-        <v>8832</v>
+        <v>4416</v>
       </c>
       <c r="AH7" s="5">
         <f t="shared" si="5"/>
@@ -1797,8 +1801,8 @@
       <c r="B8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="4">
-        <v>1500</v>
+      <c r="C8" s="8">
+        <v>750</v>
       </c>
       <c r="D8" s="4">
         <v>1.2</v>
@@ -1821,14 +1825,14 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="10"/>
-        <v>8832</v>
+        <v>4416</v>
       </c>
       <c r="M8" s="2">
         <v>1000</v>
@@ -1854,7 +1858,7 @@
       </c>
       <c r="T8" s="2">
         <f t="shared" si="12"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="U8" s="2">
         <v>150</v>
@@ -1867,15 +1871,15 @@
       </c>
       <c r="X8" s="2">
         <f t="shared" si="17"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="14"/>
@@ -1899,11 +1903,11 @@
       </c>
       <c r="AF8" s="5">
         <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AG8" s="5">
         <f t="shared" si="4"/>
-        <v>8832</v>
+        <v>4416</v>
       </c>
       <c r="AH8" s="5">
         <f t="shared" si="5"/>
@@ -1934,8 +1938,8 @@
       <c r="B9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="4">
-        <v>1500</v>
+      <c r="C9" s="8">
+        <v>750</v>
       </c>
       <c r="D9" s="4">
         <v>1.2</v>
@@ -1958,14 +1962,14 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="10"/>
-        <v>8832</v>
+        <v>4416</v>
       </c>
       <c r="M9" s="2">
         <v>1000</v>
@@ -1991,7 +1995,7 @@
       </c>
       <c r="T9" s="2">
         <f t="shared" si="12"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="U9" s="2">
         <v>150</v>
@@ -2004,15 +2008,15 @@
       </c>
       <c r="X9" s="2">
         <f t="shared" si="17"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="14"/>
@@ -2036,11 +2040,11 @@
       </c>
       <c r="AF9" s="5">
         <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AG9" s="5">
         <f t="shared" si="4"/>
-        <v>8832</v>
+        <v>4416</v>
       </c>
       <c r="AH9" s="5">
         <f t="shared" si="5"/>
@@ -2071,8 +2075,8 @@
       <c r="B10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="4">
-        <v>1500</v>
+      <c r="C10" s="8">
+        <v>750</v>
       </c>
       <c r="D10" s="4">
         <v>1.2</v>
@@ -2095,14 +2099,14 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="10"/>
-        <v>8832</v>
+        <v>4416</v>
       </c>
       <c r="M10" s="2">
         <v>1000</v>
@@ -2128,7 +2132,7 @@
       </c>
       <c r="T10" s="2">
         <f t="shared" si="12"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="U10" s="2">
         <v>150</v>
@@ -2141,15 +2145,15 @@
       </c>
       <c r="X10" s="2">
         <f t="shared" si="17"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AA10" s="2">
         <f t="shared" si="14"/>
@@ -2173,11 +2177,11 @@
       </c>
       <c r="AF10" s="5">
         <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AG10" s="5">
         <f t="shared" si="4"/>
-        <v>8832</v>
+        <v>4416</v>
       </c>
       <c r="AH10" s="5">
         <f t="shared" si="5"/>
@@ -2208,8 +2212,8 @@
       <c r="B11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="4">
-        <v>1500</v>
+      <c r="C11" s="8">
+        <v>750</v>
       </c>
       <c r="D11" s="4">
         <v>1.2</v>
@@ -2232,14 +2236,14 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="10"/>
-        <v>8832</v>
+        <v>4416</v>
       </c>
       <c r="M11" s="2">
         <v>1000</v>
@@ -2265,7 +2269,7 @@
       </c>
       <c r="T11" s="2">
         <f t="shared" si="12"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="U11" s="2">
         <v>150</v>
@@ -2278,15 +2282,15 @@
       </c>
       <c r="X11" s="2">
         <f t="shared" si="17"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AA11" s="2">
         <f t="shared" si="14"/>
@@ -2310,11 +2314,11 @@
       </c>
       <c r="AF11" s="5">
         <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AG11" s="5">
         <f t="shared" si="4"/>
-        <v>8832</v>
+        <v>4416</v>
       </c>
       <c r="AH11" s="5">
         <f t="shared" si="5"/>
@@ -2345,8 +2349,8 @@
       <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="4">
-        <v>1500</v>
+      <c r="C12" s="8">
+        <v>750</v>
       </c>
       <c r="D12" s="4">
         <v>1.2</v>
@@ -2369,14 +2373,14 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="10"/>
-        <v>8832</v>
+        <v>4416</v>
       </c>
       <c r="M12" s="2">
         <v>1000</v>
@@ -2402,7 +2406,7 @@
       </c>
       <c r="T12" s="2">
         <f t="shared" si="12"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="U12" s="2">
         <v>150</v>
@@ -2415,15 +2419,15 @@
       </c>
       <c r="X12" s="2">
         <f t="shared" si="17"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AA12" s="2">
         <f t="shared" si="14"/>
@@ -2447,11 +2451,11 @@
       </c>
       <c r="AF12" s="5">
         <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AG12" s="5">
         <f t="shared" si="4"/>
-        <v>8832</v>
+        <v>4416</v>
       </c>
       <c r="AH12" s="5">
         <f t="shared" si="5"/>
@@ -2482,8 +2486,8 @@
       <c r="B13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="4">
-        <v>1200</v>
+      <c r="C13" s="8">
+        <v>600</v>
       </c>
       <c r="D13" s="4">
         <v>1.2</v>
@@ -2506,14 +2510,14 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" si="9"/>
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="10"/>
-        <v>7065.6</v>
+        <v>3532.8</v>
       </c>
       <c r="M13" s="2">
         <v>1000</v>
@@ -2539,7 +2543,7 @@
       </c>
       <c r="T13" s="2">
         <f t="shared" si="12"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="U13" s="2">
         <v>150</v>
@@ -2552,15 +2556,15 @@
       </c>
       <c r="X13" s="2">
         <f t="shared" si="17"/>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="13"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AA13" s="2">
         <f t="shared" si="14"/>
@@ -2584,11 +2588,11 @@
       </c>
       <c r="AF13" s="5">
         <f t="shared" si="3"/>
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="AG13" s="5">
         <f t="shared" si="4"/>
-        <v>7065.6</v>
+        <v>3532.8</v>
       </c>
       <c r="AH13" s="5">
         <f t="shared" si="5"/>
@@ -2619,8 +2623,8 @@
       <c r="B14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="4">
-        <v>1200</v>
+      <c r="C14" s="8">
+        <v>600</v>
       </c>
       <c r="D14" s="4">
         <v>1.2</v>
@@ -2643,14 +2647,14 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="9"/>
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="10"/>
-        <v>7065.6</v>
+        <v>3532.8</v>
       </c>
       <c r="M14" s="2">
         <v>1000</v>
@@ -2676,7 +2680,7 @@
       </c>
       <c r="T14" s="2">
         <f t="shared" si="12"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="U14" s="2">
         <v>150</v>
@@ -2689,15 +2693,15 @@
       </c>
       <c r="X14" s="2">
         <f t="shared" si="17"/>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="13"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="14"/>
@@ -2721,11 +2725,11 @@
       </c>
       <c r="AF14" s="5">
         <f t="shared" si="3"/>
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="AG14" s="5">
         <f t="shared" si="4"/>
-        <v>7065.6</v>
+        <v>3532.8</v>
       </c>
       <c r="AH14" s="5">
         <f t="shared" si="5"/>
@@ -2756,8 +2760,8 @@
       <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="4">
-        <v>1200</v>
+      <c r="C15" s="8">
+        <v>600</v>
       </c>
       <c r="D15" s="4">
         <v>1.2</v>
@@ -2780,14 +2784,14 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="9"/>
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="10"/>
-        <v>7065.6</v>
+        <v>3532.8</v>
       </c>
       <c r="M15" s="2">
         <v>1000</v>
@@ -2813,7 +2817,7 @@
       </c>
       <c r="T15" s="2">
         <f t="shared" si="12"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="U15" s="2">
         <v>150</v>
@@ -2826,15 +2830,15 @@
       </c>
       <c r="X15" s="2">
         <f t="shared" si="17"/>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="13"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AA15" s="2">
         <f t="shared" si="14"/>
@@ -2858,11 +2862,11 @@
       </c>
       <c r="AF15" s="5">
         <f t="shared" si="3"/>
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="AG15" s="5">
         <f t="shared" si="4"/>
-        <v>7065.6</v>
+        <v>3532.8</v>
       </c>
       <c r="AH15" s="5">
         <f t="shared" si="5"/>
@@ -2893,8 +2897,8 @@
       <c r="B16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="4">
-        <v>1000</v>
+      <c r="C16" s="8">
+        <v>500</v>
       </c>
       <c r="D16" s="4">
         <v>1.2</v>
@@ -2917,14 +2921,14 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="9"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="10"/>
-        <v>5888</v>
+        <v>2944</v>
       </c>
       <c r="M16" s="2">
         <v>1000</v>
@@ -2950,7 +2954,7 @@
       </c>
       <c r="T16" s="2">
         <f t="shared" si="12"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U16" s="2">
         <v>150</v>
@@ -2963,15 +2967,15 @@
       </c>
       <c r="X16" s="2">
         <f t="shared" si="17"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="13"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="14"/>
@@ -2995,11 +2999,11 @@
       </c>
       <c r="AF16" s="5">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AG16" s="5">
         <f t="shared" si="4"/>
-        <v>5888</v>
+        <v>2944</v>
       </c>
       <c r="AH16" s="5">
         <f t="shared" si="5"/>
@@ -3030,8 +3034,8 @@
       <c r="B17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="4">
-        <v>1000</v>
+      <c r="C17" s="8">
+        <v>500</v>
       </c>
       <c r="D17" s="4">
         <v>1.2</v>
@@ -3054,14 +3058,14 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="9"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="10"/>
-        <v>5888</v>
+        <v>2944</v>
       </c>
       <c r="M17" s="2">
         <v>1000</v>
@@ -3087,7 +3091,7 @@
       </c>
       <c r="T17" s="2">
         <f t="shared" si="12"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U17" s="2">
         <v>150</v>
@@ -3100,15 +3104,15 @@
       </c>
       <c r="X17" s="2">
         <f t="shared" si="17"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="13"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="14"/>
@@ -3132,11 +3136,11 @@
       </c>
       <c r="AF17" s="5">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AG17" s="5">
         <f t="shared" si="4"/>
-        <v>5888</v>
+        <v>2944</v>
       </c>
       <c r="AH17" s="5">
         <f t="shared" si="5"/>
@@ -3167,8 +3171,8 @@
       <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="4">
-        <v>1000</v>
+      <c r="C18" s="8">
+        <v>500</v>
       </c>
       <c r="D18" s="4">
         <v>1.2</v>
@@ -3191,14 +3195,14 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="9"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="10"/>
-        <v>5888</v>
+        <v>2944</v>
       </c>
       <c r="M18" s="2">
         <v>1000</v>
@@ -3224,7 +3228,7 @@
       </c>
       <c r="T18" s="2">
         <f t="shared" si="12"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U18" s="2">
         <v>150</v>
@@ -3237,15 +3241,15 @@
       </c>
       <c r="X18" s="2">
         <f t="shared" si="17"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z18" s="2">
         <f t="shared" si="13"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA18" s="2">
         <f t="shared" si="14"/>
@@ -3269,11 +3273,11 @@
       </c>
       <c r="AF18" s="5">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AG18" s="5">
         <f t="shared" si="4"/>
-        <v>5888</v>
+        <v>2944</v>
       </c>
       <c r="AH18" s="5">
         <f t="shared" si="5"/>
@@ -3304,8 +3308,8 @@
       <c r="B19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="4">
-        <v>1000</v>
+      <c r="C19" s="8">
+        <v>500</v>
       </c>
       <c r="D19" s="4">
         <v>1.2</v>
@@ -3328,14 +3332,14 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="9"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="10"/>
-        <v>5888</v>
+        <v>2944</v>
       </c>
       <c r="M19" s="2">
         <v>1000</v>
@@ -3361,7 +3365,7 @@
       </c>
       <c r="T19" s="2">
         <f t="shared" si="12"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U19" s="2">
         <v>150</v>
@@ -3374,15 +3378,15 @@
       </c>
       <c r="X19" s="2">
         <f t="shared" si="17"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="13"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA19" s="2">
         <f t="shared" si="14"/>
@@ -3406,11 +3410,11 @@
       </c>
       <c r="AF19" s="5">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AG19" s="5">
         <f t="shared" si="4"/>
-        <v>5888</v>
+        <v>2944</v>
       </c>
       <c r="AH19" s="5">
         <f t="shared" si="5"/>
@@ -3441,8 +3445,8 @@
       <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="4">
-        <v>1000</v>
+      <c r="C20" s="8">
+        <v>500</v>
       </c>
       <c r="D20" s="4">
         <v>1.2</v>
@@ -3465,14 +3469,14 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="9"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="10"/>
-        <v>5888</v>
+        <v>2944</v>
       </c>
       <c r="M20" s="2">
         <v>1000</v>
@@ -3498,7 +3502,7 @@
       </c>
       <c r="T20" s="2">
         <f t="shared" si="12"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U20" s="2">
         <v>150</v>
@@ -3511,15 +3515,15 @@
       </c>
       <c r="X20" s="2">
         <f t="shared" si="17"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="13"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="14"/>
@@ -3543,11 +3547,11 @@
       </c>
       <c r="AF20" s="5">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AG20" s="5">
         <f t="shared" si="4"/>
-        <v>5888</v>
+        <v>2944</v>
       </c>
       <c r="AH20" s="5">
         <f t="shared" si="5"/>
@@ -3578,8 +3582,8 @@
       <c r="B21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="4">
-        <v>998</v>
+      <c r="C21" s="8">
+        <v>499</v>
       </c>
       <c r="D21" s="4">
         <v>1.2</v>
@@ -3602,14 +3606,14 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="9"/>
-        <v>0.35927999999999999</v>
+        <v>0.17963999999999999</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="10"/>
-        <v>10577.203199999998</v>
+        <v>5288.6015999999991</v>
       </c>
       <c r="M21" s="2">
         <v>1000</v>
@@ -3635,7 +3639,7 @@
       </c>
       <c r="T21" s="2">
         <f t="shared" si="12"/>
-        <v>215.56799999999998</v>
+        <v>107.78399999999999</v>
       </c>
       <c r="U21" s="2">
         <v>150</v>
@@ -3648,15 +3652,15 @@
       </c>
       <c r="X21" s="2">
         <f t="shared" si="17"/>
-        <v>143.71199999999999</v>
+        <v>71.855999999999995</v>
       </c>
       <c r="Y21" s="2">
         <f t="shared" si="0"/>
-        <v>359.28</v>
+        <v>179.64</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="13"/>
-        <v>359.28</v>
+        <v>179.64</v>
       </c>
       <c r="AA21" s="2">
         <f t="shared" si="14"/>
@@ -3680,11 +3684,11 @@
       </c>
       <c r="AF21" s="5">
         <f t="shared" si="3"/>
-        <v>0.35927999999999999</v>
+        <v>0.17963999999999999</v>
       </c>
       <c r="AG21" s="5">
         <f t="shared" si="4"/>
-        <v>10577.203199999998</v>
+        <v>5288.6015999999991</v>
       </c>
       <c r="AH21" s="5">
         <f t="shared" si="5"/>
@@ -3715,8 +3719,8 @@
       <c r="B22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="4">
-        <v>925</v>
+      <c r="C22" s="8">
+        <v>462.5</v>
       </c>
       <c r="D22" s="4">
         <v>1.2</v>
@@ -3739,14 +3743,14 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" si="9"/>
-        <v>0.33300000000000002</v>
+        <v>0.16650000000000001</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="10"/>
-        <v>9803.52</v>
+        <v>4901.76</v>
       </c>
       <c r="M22" s="2">
         <v>1000</v>
@@ -3772,7 +3776,7 @@
       </c>
       <c r="T22" s="2">
         <f t="shared" si="12"/>
-        <v>199.79999999999998</v>
+        <v>99.899999999999991</v>
       </c>
       <c r="U22" s="2">
         <v>150</v>
@@ -3785,15 +3789,15 @@
       </c>
       <c r="X22" s="2">
         <f t="shared" si="17"/>
-        <v>133.20000000000002</v>
+        <v>66.600000000000009</v>
       </c>
       <c r="Y22" s="2">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>166.5</v>
       </c>
       <c r="Z22" s="2">
         <f t="shared" si="13"/>
-        <v>333</v>
+        <v>166.5</v>
       </c>
       <c r="AA22" s="2">
         <f t="shared" si="14"/>
@@ -3817,11 +3821,11 @@
       </c>
       <c r="AF22" s="5">
         <f t="shared" si="3"/>
-        <v>0.33300000000000002</v>
+        <v>0.16650000000000001</v>
       </c>
       <c r="AG22" s="5">
         <f t="shared" si="4"/>
-        <v>9803.52</v>
+        <v>4901.76</v>
       </c>
       <c r="AH22" s="5">
         <f t="shared" si="5"/>
@@ -3852,8 +3856,8 @@
       <c r="B23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="4">
-        <v>900</v>
+      <c r="C23" s="8">
+        <v>450</v>
       </c>
       <c r="D23" s="4">
         <v>1.2</v>
@@ -3876,14 +3880,14 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" si="9"/>
-        <v>0.32400000000000001</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="10"/>
-        <v>9538.56</v>
+        <v>4769.28</v>
       </c>
       <c r="M23" s="2">
         <v>1000</v>
@@ -3909,7 +3913,7 @@
       </c>
       <c r="T23" s="2">
         <f t="shared" si="12"/>
-        <v>194.4</v>
+        <v>97.2</v>
       </c>
       <c r="U23" s="2">
         <v>150</v>
@@ -3922,15 +3926,15 @@
       </c>
       <c r="X23" s="2">
         <f t="shared" si="17"/>
-        <v>129.6</v>
+        <v>64.8</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="13"/>
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="AA23" s="2">
         <f t="shared" si="14"/>
@@ -3954,11 +3958,11 @@
       </c>
       <c r="AF23" s="5">
         <f t="shared" si="3"/>
-        <v>0.32400000000000001</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="AG23" s="5">
         <f t="shared" si="4"/>
-        <v>9538.56</v>
+        <v>4769.28</v>
       </c>
       <c r="AH23" s="5">
         <f t="shared" si="5"/>
@@ -3989,8 +3993,8 @@
       <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="4">
-        <v>850</v>
+      <c r="C24" s="8">
+        <v>425</v>
       </c>
       <c r="D24" s="4">
         <v>1.2</v>
@@ -4013,14 +4017,14 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="9"/>
-        <v>0.30599999999999999</v>
+        <v>0.153</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="10"/>
-        <v>9008.64</v>
+        <v>4504.32</v>
       </c>
       <c r="M24" s="2">
         <v>1000</v>
@@ -4046,7 +4050,7 @@
       </c>
       <c r="T24" s="2">
         <f t="shared" si="12"/>
-        <v>183.6</v>
+        <v>91.8</v>
       </c>
       <c r="U24" s="2">
         <v>150</v>
@@ -4059,15 +4063,15 @@
       </c>
       <c r="X24" s="2">
         <f t="shared" si="17"/>
-        <v>122.4</v>
+        <v>61.2</v>
       </c>
       <c r="Y24" s="2">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="Z24" s="2">
         <f t="shared" si="13"/>
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="AA24" s="2">
         <f t="shared" si="14"/>
@@ -4091,11 +4095,11 @@
       </c>
       <c r="AF24" s="5">
         <f t="shared" si="3"/>
-        <v>0.30599999999999999</v>
+        <v>0.153</v>
       </c>
       <c r="AG24" s="5">
         <f t="shared" si="4"/>
-        <v>9008.64</v>
+        <v>4504.32</v>
       </c>
       <c r="AH24" s="5">
         <f t="shared" si="5"/>
@@ -4126,8 +4130,8 @@
       <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="4">
-        <v>800</v>
+      <c r="C25" s="8">
+        <v>400</v>
       </c>
       <c r="D25" s="4">
         <v>1.2</v>
@@ -4150,14 +4154,14 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" si="9"/>
-        <v>0.28799999999999998</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="10"/>
-        <v>8478.7199999999993</v>
+        <v>4239.3599999999997</v>
       </c>
       <c r="M25" s="2">
         <v>1000</v>
@@ -4183,7 +4187,7 @@
       </c>
       <c r="T25" s="2">
         <f t="shared" si="12"/>
-        <v>172.79999999999998</v>
+        <v>86.399999999999991</v>
       </c>
       <c r="U25" s="2">
         <v>150</v>
@@ -4196,15 +4200,15 @@
       </c>
       <c r="X25" s="2">
         <f t="shared" si="17"/>
-        <v>115.2</v>
+        <v>57.6</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="13"/>
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="AA25" s="2">
         <f t="shared" si="14"/>
@@ -4228,11 +4232,11 @@
       </c>
       <c r="AF25" s="5">
         <f t="shared" si="3"/>
-        <v>0.28799999999999998</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="AG25" s="5">
         <f t="shared" si="4"/>
-        <v>8478.7199999999993</v>
+        <v>4239.3599999999997</v>
       </c>
       <c r="AH25" s="5">
         <f t="shared" si="5"/>
@@ -4263,8 +4267,8 @@
       <c r="B26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="4">
-        <v>800</v>
+      <c r="C26" s="8">
+        <v>400</v>
       </c>
       <c r="D26" s="4">
         <v>1.2</v>
@@ -4287,14 +4291,14 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="9"/>
-        <v>0.28799999999999998</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="10"/>
-        <v>8478.7199999999993</v>
+        <v>4239.3599999999997</v>
       </c>
       <c r="M26" s="2">
         <v>1000</v>
@@ -4320,7 +4324,7 @@
       </c>
       <c r="T26" s="2">
         <f t="shared" si="12"/>
-        <v>172.79999999999998</v>
+        <v>86.399999999999991</v>
       </c>
       <c r="U26" s="2">
         <v>150</v>
@@ -4333,15 +4337,15 @@
       </c>
       <c r="X26" s="2">
         <f t="shared" si="17"/>
-        <v>115.2</v>
+        <v>57.6</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="Z26" s="2">
         <f t="shared" si="13"/>
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="AA26" s="2">
         <f t="shared" si="14"/>
@@ -4365,11 +4369,11 @@
       </c>
       <c r="AF26" s="5">
         <f t="shared" si="3"/>
-        <v>0.28799999999999998</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="AG26" s="5">
         <f t="shared" si="4"/>
-        <v>8478.7199999999993</v>
+        <v>4239.3599999999997</v>
       </c>
       <c r="AH26" s="5">
         <f t="shared" si="5"/>
@@ -4400,8 +4404,8 @@
       <c r="B27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="4">
-        <v>800</v>
+      <c r="C27" s="8">
+        <v>400</v>
       </c>
       <c r="D27" s="4">
         <v>1.2</v>
@@ -4424,14 +4428,14 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" si="9"/>
-        <v>0.28799999999999998</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="10"/>
-        <v>8478.7199999999993</v>
+        <v>4239.3599999999997</v>
       </c>
       <c r="M27" s="2">
         <v>1000</v>
@@ -4457,7 +4461,7 @@
       </c>
       <c r="T27" s="2">
         <f t="shared" si="12"/>
-        <v>172.79999999999998</v>
+        <v>86.399999999999991</v>
       </c>
       <c r="U27" s="2">
         <v>150</v>
@@ -4470,15 +4474,15 @@
       </c>
       <c r="X27" s="2">
         <f t="shared" si="17"/>
-        <v>115.2</v>
+        <v>57.6</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" si="13"/>
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="AA27" s="2">
         <f t="shared" si="14"/>
@@ -4502,11 +4506,11 @@
       </c>
       <c r="AF27" s="5">
         <f t="shared" si="3"/>
-        <v>0.28799999999999998</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="AG27" s="5">
         <f t="shared" si="4"/>
-        <v>8478.7199999999993</v>
+        <v>4239.3599999999997</v>
       </c>
       <c r="AH27" s="5">
         <f t="shared" si="5"/>
@@ -4537,8 +4541,8 @@
       <c r="B28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="4">
-        <v>800</v>
+      <c r="C28" s="8">
+        <v>400</v>
       </c>
       <c r="D28" s="4">
         <v>1.2</v>
@@ -4561,14 +4565,14 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="9"/>
-        <v>0.28799999999999998</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="K28" s="2">
         <v>0</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="10"/>
-        <v>8478.7199999999993</v>
+        <v>4239.3599999999997</v>
       </c>
       <c r="M28" s="2">
         <v>1000</v>
@@ -4594,7 +4598,7 @@
       </c>
       <c r="T28" s="2">
         <f t="shared" si="12"/>
-        <v>172.79999999999998</v>
+        <v>86.399999999999991</v>
       </c>
       <c r="U28" s="2">
         <v>150</v>
@@ -4607,15 +4611,15 @@
       </c>
       <c r="X28" s="2">
         <f t="shared" si="17"/>
-        <v>115.2</v>
+        <v>57.6</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="13"/>
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="AA28" s="2">
         <f t="shared" si="14"/>
@@ -4639,11 +4643,11 @@
       </c>
       <c r="AF28" s="5">
         <f t="shared" si="3"/>
-        <v>0.28799999999999998</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="AG28" s="5">
         <f t="shared" si="4"/>
-        <v>8478.7199999999993</v>
+        <v>4239.3599999999997</v>
       </c>
       <c r="AH28" s="5">
         <f t="shared" si="5"/>
@@ -4674,8 +4678,8 @@
       <c r="B29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="4">
-        <v>750</v>
+      <c r="C29" s="8">
+        <v>375</v>
       </c>
       <c r="D29" s="4">
         <v>1.2</v>
@@ -4698,14 +4702,14 @@
       </c>
       <c r="J29" s="2">
         <f t="shared" si="9"/>
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="10"/>
-        <v>7948.8</v>
+        <v>3974.4</v>
       </c>
       <c r="M29" s="2">
         <v>1000</v>
@@ -4731,7 +4735,7 @@
       </c>
       <c r="T29" s="2">
         <f t="shared" si="12"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="U29" s="2">
         <v>150</v>
@@ -4744,15 +4748,15 @@
       </c>
       <c r="X29" s="2">
         <f t="shared" si="17"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="13"/>
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="AA29" s="2">
         <f t="shared" si="14"/>
@@ -4776,11 +4780,11 @@
       </c>
       <c r="AF29" s="5">
         <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AG29" s="5">
         <f t="shared" si="4"/>
-        <v>7948.8</v>
+        <v>3974.4</v>
       </c>
       <c r="AH29" s="5">
         <f t="shared" si="5"/>
@@ -4811,8 +4815,8 @@
       <c r="B30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="4">
-        <v>700</v>
+      <c r="C30" s="8">
+        <v>350</v>
       </c>
       <c r="D30" s="4">
         <v>1.2</v>
@@ -4835,14 +4839,14 @@
       </c>
       <c r="J30" s="2">
         <f t="shared" si="9"/>
-        <v>0.252</v>
+        <v>0.126</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="10"/>
-        <v>7418.88</v>
+        <v>3709.44</v>
       </c>
       <c r="M30" s="2">
         <v>1000</v>
@@ -4868,7 +4872,7 @@
       </c>
       <c r="T30" s="2">
         <f t="shared" si="12"/>
-        <v>151.19999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="U30" s="2">
         <v>150</v>
@@ -4881,15 +4885,15 @@
       </c>
       <c r="X30" s="2">
         <f t="shared" si="17"/>
-        <v>100.80000000000001</v>
+        <v>50.400000000000006</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="Z30" s="2">
         <f t="shared" si="13"/>
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="AA30" s="2">
         <f t="shared" si="14"/>
@@ -4913,11 +4917,11 @@
       </c>
       <c r="AF30" s="5">
         <f t="shared" si="3"/>
-        <v>0.252</v>
+        <v>0.126</v>
       </c>
       <c r="AG30" s="5">
         <f t="shared" si="4"/>
-        <v>7418.88</v>
+        <v>3709.44</v>
       </c>
       <c r="AH30" s="5">
         <f t="shared" si="5"/>
@@ -4948,8 +4952,8 @@
       <c r="B31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="4">
-        <v>650</v>
+      <c r="C31" s="8">
+        <v>325</v>
       </c>
       <c r="D31" s="4">
         <v>1.2</v>
@@ -4972,14 +4976,14 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" si="9"/>
-        <v>0.23400000000000001</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="10"/>
-        <v>6888.96</v>
+        <v>3444.48</v>
       </c>
       <c r="M31" s="2">
         <v>1000</v>
@@ -5005,7 +5009,7 @@
       </c>
       <c r="T31" s="2">
         <f t="shared" si="12"/>
-        <v>140.4</v>
+        <v>70.2</v>
       </c>
       <c r="U31" s="2">
         <v>150</v>
@@ -5018,15 +5022,15 @@
       </c>
       <c r="X31" s="2">
         <f t="shared" si="17"/>
-        <v>93.600000000000009</v>
+        <v>46.800000000000004</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="Z31" s="2">
         <f t="shared" si="13"/>
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="AA31" s="2">
         <f t="shared" si="14"/>
@@ -5050,11 +5054,11 @@
       </c>
       <c r="AF31" s="5">
         <f t="shared" si="3"/>
-        <v>0.23400000000000001</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="AG31" s="5">
         <f t="shared" si="4"/>
-        <v>6888.96</v>
+        <v>3444.48</v>
       </c>
       <c r="AH31" s="5">
         <f t="shared" si="5"/>
@@ -5085,8 +5089,8 @@
       <c r="B32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="4">
-        <v>600</v>
+      <c r="C32" s="8">
+        <v>300</v>
       </c>
       <c r="D32" s="4">
         <v>1.2</v>
@@ -5109,14 +5113,14 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" si="9"/>
-        <v>0.216</v>
+        <v>0.108</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="10"/>
-        <v>6359.04</v>
+        <v>3179.52</v>
       </c>
       <c r="M32" s="2">
         <v>1000</v>
@@ -5142,7 +5146,7 @@
       </c>
       <c r="T32" s="2">
         <f t="shared" si="12"/>
-        <v>129.6</v>
+        <v>64.8</v>
       </c>
       <c r="U32" s="2">
         <v>150</v>
@@ -5155,15 +5159,15 @@
       </c>
       <c r="X32" s="2">
         <f t="shared" si="17"/>
-        <v>86.4</v>
+        <v>43.2</v>
       </c>
       <c r="Y32" s="2">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="Z32" s="2">
         <f t="shared" si="13"/>
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="AA32" s="2">
         <f t="shared" si="14"/>
@@ -5187,11 +5191,11 @@
       </c>
       <c r="AF32" s="5">
         <f t="shared" si="3"/>
-        <v>0.216</v>
+        <v>0.108</v>
       </c>
       <c r="AG32" s="5">
         <f t="shared" si="4"/>
-        <v>6359.04</v>
+        <v>3179.52</v>
       </c>
       <c r="AH32" s="5">
         <f t="shared" si="5"/>
@@ -5222,8 +5226,8 @@
       <c r="B33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="4">
-        <v>550</v>
+      <c r="C33" s="8">
+        <v>275</v>
       </c>
       <c r="D33" s="4">
         <v>1.2</v>
@@ -5246,14 +5250,14 @@
       </c>
       <c r="J33" s="2">
         <f t="shared" si="9"/>
-        <v>0.19800000000000001</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="10"/>
-        <v>5829.12</v>
+        <v>2914.56</v>
       </c>
       <c r="M33" s="2">
         <v>1000</v>
@@ -5279,7 +5283,7 @@
       </c>
       <c r="T33" s="2">
         <f t="shared" si="12"/>
-        <v>118.8</v>
+        <v>59.4</v>
       </c>
       <c r="U33" s="2">
         <v>150</v>
@@ -5292,15 +5296,15 @@
       </c>
       <c r="X33" s="2">
         <f t="shared" si="17"/>
-        <v>79.2</v>
+        <v>39.6</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="Z33" s="2">
         <f t="shared" si="13"/>
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="AA33" s="2">
         <f t="shared" si="14"/>
@@ -5324,11 +5328,11 @@
       </c>
       <c r="AF33" s="5">
         <f t="shared" si="3"/>
-        <v>0.19800000000000001</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="AG33" s="5">
         <f t="shared" si="4"/>
-        <v>5829.12</v>
+        <v>2914.56</v>
       </c>
       <c r="AH33" s="5">
         <f t="shared" si="5"/>
@@ -5359,8 +5363,8 @@
       <c r="B34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="4">
-        <v>500</v>
+      <c r="C34" s="8">
+        <v>250</v>
       </c>
       <c r="D34" s="4">
         <v>1.2</v>
@@ -5383,14 +5387,14 @@
       </c>
       <c r="J34" s="2">
         <f t="shared" si="9"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="10"/>
-        <v>5299.2</v>
+        <v>2649.6</v>
       </c>
       <c r="M34" s="2">
         <v>1000</v>
@@ -5416,7 +5420,7 @@
       </c>
       <c r="T34" s="2">
         <f t="shared" si="12"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="U34" s="2">
         <v>150</v>
@@ -5429,15 +5433,15 @@
       </c>
       <c r="X34" s="2">
         <f t="shared" si="17"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" ref="Y34:Y70" si="18">C34*G34</f>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="13"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AA34" s="2">
         <f t="shared" si="14"/>
@@ -5461,11 +5465,11 @@
       </c>
       <c r="AF34" s="5">
         <f t="shared" ref="AF34:AF70" si="21">J34</f>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="AG34" s="5">
         <f t="shared" ref="AG34:AG70" si="22">L34</f>
-        <v>5299.2</v>
+        <v>2649.6</v>
       </c>
       <c r="AH34" s="5">
         <f t="shared" ref="AH34:AH70" si="23">M34</f>
@@ -5496,8 +5500,8 @@
       <c r="B35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="4">
-        <v>450</v>
+      <c r="C35" s="8">
+        <v>225</v>
       </c>
       <c r="D35" s="4">
         <v>1.2</v>
@@ -5520,14 +5524,14 @@
       </c>
       <c r="J35" s="2">
         <f t="shared" si="9"/>
-        <v>0.16200000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="K35" s="2">
         <v>0</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="10"/>
-        <v>4769.28</v>
+        <v>2384.64</v>
       </c>
       <c r="M35" s="2">
         <v>1000</v>
@@ -5553,7 +5557,7 @@
       </c>
       <c r="T35" s="2">
         <f t="shared" si="12"/>
-        <v>97.2</v>
+        <v>48.6</v>
       </c>
       <c r="U35" s="2">
         <v>150</v>
@@ -5566,15 +5570,15 @@
       </c>
       <c r="X35" s="2">
         <f t="shared" si="17"/>
-        <v>64.8</v>
+        <v>32.4</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="18"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="Z35" s="2">
         <f t="shared" si="13"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AA35" s="2">
         <f t="shared" si="14"/>
@@ -5598,11 +5602,11 @@
       </c>
       <c r="AF35" s="5">
         <f t="shared" si="21"/>
-        <v>0.16200000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="AG35" s="5">
         <f t="shared" si="22"/>
-        <v>4769.28</v>
+        <v>2384.64</v>
       </c>
       <c r="AH35" s="5">
         <f t="shared" si="23"/>
@@ -5633,8 +5637,8 @@
       <c r="B36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="4">
-        <v>450</v>
+      <c r="C36" s="8">
+        <v>225</v>
       </c>
       <c r="D36" s="4">
         <v>1.2</v>
@@ -5657,14 +5661,14 @@
       </c>
       <c r="J36" s="2">
         <f t="shared" si="9"/>
-        <v>0.16200000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="K36" s="2">
         <v>0</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="10"/>
-        <v>4769.28</v>
+        <v>2384.64</v>
       </c>
       <c r="M36" s="2">
         <v>1000</v>
@@ -5690,7 +5694,7 @@
       </c>
       <c r="T36" s="2">
         <f t="shared" si="12"/>
-        <v>97.2</v>
+        <v>48.6</v>
       </c>
       <c r="U36" s="2">
         <v>150</v>
@@ -5703,15 +5707,15 @@
       </c>
       <c r="X36" s="2">
         <f t="shared" si="17"/>
-        <v>64.8</v>
+        <v>32.4</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="18"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="Z36" s="2">
         <f t="shared" si="13"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AA36" s="2">
         <f t="shared" si="14"/>
@@ -5735,11 +5739,11 @@
       </c>
       <c r="AF36" s="5">
         <f t="shared" si="21"/>
-        <v>0.16200000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="AG36" s="5">
         <f t="shared" si="22"/>
-        <v>4769.28</v>
+        <v>2384.64</v>
       </c>
       <c r="AH36" s="5">
         <f t="shared" si="23"/>
@@ -5770,8 +5774,8 @@
       <c r="B37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="4">
-        <v>450</v>
+      <c r="C37" s="8">
+        <v>225</v>
       </c>
       <c r="D37" s="4">
         <v>1.2</v>
@@ -5794,14 +5798,14 @@
       </c>
       <c r="J37" s="2">
         <f t="shared" si="9"/>
-        <v>0.16200000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="10"/>
-        <v>4769.28</v>
+        <v>2384.64</v>
       </c>
       <c r="M37" s="2">
         <v>1000</v>
@@ -5827,7 +5831,7 @@
       </c>
       <c r="T37" s="2">
         <f t="shared" si="12"/>
-        <v>97.2</v>
+        <v>48.6</v>
       </c>
       <c r="U37" s="2">
         <v>150</v>
@@ -5840,15 +5844,15 @@
       </c>
       <c r="X37" s="2">
         <f t="shared" si="17"/>
-        <v>64.8</v>
+        <v>32.4</v>
       </c>
       <c r="Y37" s="2">
         <f t="shared" si="18"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="Z37" s="2">
         <f t="shared" si="13"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AA37" s="2">
         <f t="shared" si="14"/>
@@ -5872,11 +5876,11 @@
       </c>
       <c r="AF37" s="5">
         <f t="shared" si="21"/>
-        <v>0.16200000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="AG37" s="5">
         <f t="shared" si="22"/>
-        <v>4769.28</v>
+        <v>2384.64</v>
       </c>
       <c r="AH37" s="5">
         <f t="shared" si="23"/>
@@ -5907,8 +5911,8 @@
       <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="4">
-        <v>450</v>
+      <c r="C38" s="8">
+        <v>225</v>
       </c>
       <c r="D38" s="4">
         <v>1.2</v>
@@ -5931,14 +5935,14 @@
       </c>
       <c r="J38" s="2">
         <f t="shared" si="9"/>
-        <v>0.16200000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="10"/>
-        <v>4769.28</v>
+        <v>2384.64</v>
       </c>
       <c r="M38" s="2">
         <v>1000</v>
@@ -5964,7 +5968,7 @@
       </c>
       <c r="T38" s="2">
         <f t="shared" si="12"/>
-        <v>97.2</v>
+        <v>48.6</v>
       </c>
       <c r="U38" s="2">
         <v>150</v>
@@ -5977,15 +5981,15 @@
       </c>
       <c r="X38" s="2">
         <f t="shared" si="17"/>
-        <v>64.8</v>
+        <v>32.4</v>
       </c>
       <c r="Y38" s="2">
         <f t="shared" si="18"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="Z38" s="2">
         <f t="shared" si="13"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AA38" s="2">
         <f t="shared" si="14"/>
@@ -6009,11 +6013,11 @@
       </c>
       <c r="AF38" s="5">
         <f t="shared" si="21"/>
-        <v>0.16200000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="AG38" s="5">
         <f t="shared" si="22"/>
-        <v>4769.28</v>
+        <v>2384.64</v>
       </c>
       <c r="AH38" s="5">
         <f t="shared" si="23"/>
@@ -6044,8 +6048,8 @@
       <c r="B39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="4">
-        <v>450</v>
+      <c r="C39" s="8">
+        <v>225</v>
       </c>
       <c r="D39" s="4">
         <v>1.2</v>
@@ -6068,14 +6072,14 @@
       </c>
       <c r="J39" s="2">
         <f t="shared" si="9"/>
-        <v>0.16200000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="10"/>
-        <v>4769.28</v>
+        <v>2384.64</v>
       </c>
       <c r="M39" s="2">
         <v>1000</v>
@@ -6101,7 +6105,7 @@
       </c>
       <c r="T39" s="2">
         <f t="shared" si="12"/>
-        <v>97.2</v>
+        <v>48.6</v>
       </c>
       <c r="U39" s="2">
         <v>150</v>
@@ -6114,15 +6118,15 @@
       </c>
       <c r="X39" s="2">
         <f t="shared" si="17"/>
-        <v>64.8</v>
+        <v>32.4</v>
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="18"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="Z39" s="2">
         <f t="shared" si="13"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AA39" s="2">
         <f t="shared" si="14"/>
@@ -6146,11 +6150,11 @@
       </c>
       <c r="AF39" s="5">
         <f t="shared" si="21"/>
-        <v>0.16200000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="AG39" s="5">
         <f t="shared" si="22"/>
-        <v>4769.28</v>
+        <v>2384.64</v>
       </c>
       <c r="AH39" s="5">
         <f t="shared" si="23"/>
@@ -6181,8 +6185,8 @@
       <c r="B40" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="4">
-        <v>400</v>
+      <c r="C40" s="8">
+        <v>200</v>
       </c>
       <c r="D40" s="4">
         <v>1.2</v>
@@ -6205,14 +6209,14 @@
       </c>
       <c r="J40" s="2">
         <f t="shared" si="9"/>
-        <v>0.14399999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="K40" s="2">
         <v>0</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="10"/>
-        <v>4239.3599999999997</v>
+        <v>2119.6799999999998</v>
       </c>
       <c r="M40" s="2">
         <v>1000</v>
@@ -6238,7 +6242,7 @@
       </c>
       <c r="T40" s="2">
         <f t="shared" si="12"/>
-        <v>86.399999999999991</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="U40" s="2">
         <v>150</v>
@@ -6251,15 +6255,15 @@
       </c>
       <c r="X40" s="2">
         <f t="shared" si="17"/>
-        <v>57.6</v>
+        <v>28.8</v>
       </c>
       <c r="Y40" s="2">
         <f t="shared" si="18"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="Z40" s="2">
         <f t="shared" si="13"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="AA40" s="2">
         <f t="shared" si="14"/>
@@ -6283,11 +6287,11 @@
       </c>
       <c r="AF40" s="5">
         <f t="shared" si="21"/>
-        <v>0.14399999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AG40" s="5">
         <f t="shared" si="22"/>
-        <v>4239.3599999999997</v>
+        <v>2119.6799999999998</v>
       </c>
       <c r="AH40" s="5">
         <f t="shared" si="23"/>
@@ -6318,8 +6322,8 @@
       <c r="B41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="4">
-        <v>380</v>
+      <c r="C41" s="8">
+        <v>190</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -6342,14 +6346,14 @@
       </c>
       <c r="J41" s="2">
         <f t="shared" si="9"/>
-        <v>0.10640000000000001</v>
+        <v>5.3200000000000004E-2</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="10"/>
-        <v>3132.4160000000006</v>
+        <v>1566.2080000000003</v>
       </c>
       <c r="M41" s="2">
         <v>1000</v>
@@ -6375,7 +6379,7 @@
       </c>
       <c r="T41" s="2">
         <f t="shared" si="12"/>
-        <v>63.84</v>
+        <v>31.92</v>
       </c>
       <c r="U41" s="2">
         <v>150</v>
@@ -6388,15 +6392,15 @@
       </c>
       <c r="X41" s="2">
         <f t="shared" si="17"/>
-        <v>42.56</v>
+        <v>21.28</v>
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="18"/>
-        <v>106.4</v>
+        <v>53.2</v>
       </c>
       <c r="Z41" s="2">
         <f t="shared" si="13"/>
-        <v>106.4</v>
+        <v>53.2</v>
       </c>
       <c r="AA41" s="2">
         <f t="shared" si="14"/>
@@ -6420,11 +6424,11 @@
       </c>
       <c r="AF41" s="5">
         <f t="shared" si="21"/>
-        <v>0.10640000000000001</v>
+        <v>5.3200000000000004E-2</v>
       </c>
       <c r="AG41" s="5">
         <f t="shared" si="22"/>
-        <v>3132.4160000000006</v>
+        <v>1566.2080000000003</v>
       </c>
       <c r="AH41" s="5">
         <f t="shared" si="23"/>
@@ -6455,8 +6459,8 @@
       <c r="B42" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="4">
-        <v>360</v>
+      <c r="C42" s="8">
+        <v>180</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -6479,14 +6483,14 @@
       </c>
       <c r="J42" s="2">
         <f t="shared" si="9"/>
-        <v>0.10080000000000001</v>
+        <v>5.0400000000000007E-2</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="10"/>
-        <v>2967.5520000000001</v>
+        <v>1483.7760000000001</v>
       </c>
       <c r="M42" s="2">
         <v>1000</v>
@@ -6512,7 +6516,7 @@
       </c>
       <c r="T42" s="2">
         <f t="shared" si="12"/>
-        <v>60.480000000000004</v>
+        <v>30.240000000000002</v>
       </c>
       <c r="U42" s="2">
         <v>150</v>
@@ -6525,15 +6529,15 @@
       </c>
       <c r="X42" s="2">
         <f t="shared" si="17"/>
-        <v>40.320000000000007</v>
+        <v>20.160000000000004</v>
       </c>
       <c r="Y42" s="2">
         <f t="shared" si="18"/>
-        <v>100.80000000000001</v>
+        <v>50.400000000000006</v>
       </c>
       <c r="Z42" s="2">
         <f t="shared" si="13"/>
-        <v>100.80000000000001</v>
+        <v>50.400000000000006</v>
       </c>
       <c r="AA42" s="2">
         <f t="shared" si="14"/>
@@ -6557,11 +6561,11 @@
       </c>
       <c r="AF42" s="5">
         <f t="shared" si="21"/>
-        <v>0.10080000000000001</v>
+        <v>5.0400000000000007E-2</v>
       </c>
       <c r="AG42" s="5">
         <f t="shared" si="22"/>
-        <v>2967.5520000000001</v>
+        <v>1483.7760000000001</v>
       </c>
       <c r="AH42" s="5">
         <f t="shared" si="23"/>
@@ -6592,8 +6596,8 @@
       <c r="B43" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="4">
-        <v>340</v>
+      <c r="C43" s="8">
+        <v>170</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -6616,14 +6620,14 @@
       </c>
       <c r="J43" s="2">
         <f t="shared" si="9"/>
-        <v>9.5200000000000007E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="10"/>
-        <v>2802.6880000000001</v>
+        <v>1401.3440000000001</v>
       </c>
       <c r="M43" s="2">
         <v>1000</v>
@@ -6649,7 +6653,7 @@
       </c>
       <c r="T43" s="2">
         <f t="shared" si="12"/>
-        <v>57.12</v>
+        <v>28.56</v>
       </c>
       <c r="U43" s="2">
         <v>150</v>
@@ -6662,15 +6666,15 @@
       </c>
       <c r="X43" s="2">
         <f t="shared" si="17"/>
-        <v>38.080000000000005</v>
+        <v>19.040000000000003</v>
       </c>
       <c r="Y43" s="2">
         <f t="shared" si="18"/>
-        <v>95.2</v>
+        <v>47.6</v>
       </c>
       <c r="Z43" s="2">
         <f t="shared" si="13"/>
-        <v>95.2</v>
+        <v>47.6</v>
       </c>
       <c r="AA43" s="2">
         <f t="shared" si="14"/>
@@ -6694,11 +6698,11 @@
       </c>
       <c r="AF43" s="5">
         <f t="shared" si="21"/>
-        <v>9.5200000000000007E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="AG43" s="5">
         <f t="shared" si="22"/>
-        <v>2802.6880000000001</v>
+        <v>1401.3440000000001</v>
       </c>
       <c r="AH43" s="5">
         <f t="shared" si="23"/>
@@ -6729,8 +6733,8 @@
       <c r="B44" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="4">
-        <v>320</v>
+      <c r="C44" s="8">
+        <v>160</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -6753,14 +6757,14 @@
       </c>
       <c r="J44" s="2">
         <f t="shared" si="9"/>
-        <v>8.9600000000000013E-2</v>
+        <v>4.4800000000000006E-2</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="10"/>
-        <v>2637.8240000000001</v>
+        <v>1318.912</v>
       </c>
       <c r="M44" s="2">
         <v>1000</v>
@@ -6786,7 +6790,7 @@
       </c>
       <c r="T44" s="2">
         <f t="shared" si="12"/>
-        <v>53.760000000000005</v>
+        <v>26.880000000000003</v>
       </c>
       <c r="U44" s="2">
         <v>150</v>
@@ -6799,15 +6803,15 @@
       </c>
       <c r="X44" s="2">
         <f t="shared" si="17"/>
-        <v>35.840000000000003</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="Y44" s="2">
         <f t="shared" si="18"/>
-        <v>89.600000000000009</v>
+        <v>44.800000000000004</v>
       </c>
       <c r="Z44" s="2">
         <f t="shared" si="13"/>
-        <v>89.600000000000009</v>
+        <v>44.800000000000004</v>
       </c>
       <c r="AA44" s="2">
         <f t="shared" si="14"/>
@@ -6831,11 +6835,11 @@
       </c>
       <c r="AF44" s="5">
         <f t="shared" si="21"/>
-        <v>8.9600000000000013E-2</v>
+        <v>4.4800000000000006E-2</v>
       </c>
       <c r="AG44" s="5">
         <f t="shared" si="22"/>
-        <v>2637.8240000000001</v>
+        <v>1318.912</v>
       </c>
       <c r="AH44" s="5">
         <f t="shared" si="23"/>
@@ -6866,8 +6870,8 @@
       <c r="B45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="4">
-        <v>300</v>
+      <c r="C45" s="8">
+        <v>150</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -6890,14 +6894,14 @@
       </c>
       <c r="J45" s="2">
         <f t="shared" si="9"/>
-        <v>8.4000000000000019E-2</v>
+        <v>4.200000000000001E-2</v>
       </c>
       <c r="K45" s="2">
         <v>0</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="10"/>
-        <v>2472.9600000000005</v>
+        <v>1236.4800000000002</v>
       </c>
       <c r="M45" s="2">
         <v>1000</v>
@@ -6923,7 +6927,7 @@
       </c>
       <c r="T45" s="2">
         <f t="shared" si="12"/>
-        <v>50.400000000000006</v>
+        <v>25.200000000000003</v>
       </c>
       <c r="U45" s="2">
         <v>150</v>
@@ -6936,15 +6940,15 @@
       </c>
       <c r="X45" s="2">
         <f t="shared" si="17"/>
-        <v>33.600000000000009</v>
+        <v>16.800000000000004</v>
       </c>
       <c r="Y45" s="2">
         <f t="shared" si="18"/>
-        <v>84.000000000000014</v>
+        <v>42.000000000000007</v>
       </c>
       <c r="Z45" s="2">
         <f t="shared" si="13"/>
-        <v>84.000000000000014</v>
+        <v>42.000000000000007</v>
       </c>
       <c r="AA45" s="2">
         <f t="shared" si="14"/>
@@ -6968,11 +6972,11 @@
       </c>
       <c r="AF45" s="5">
         <f t="shared" si="21"/>
-        <v>8.4000000000000019E-2</v>
+        <v>4.200000000000001E-2</v>
       </c>
       <c r="AG45" s="5">
         <f t="shared" si="22"/>
-        <v>2472.9600000000005</v>
+        <v>1236.4800000000002</v>
       </c>
       <c r="AH45" s="5">
         <f t="shared" si="23"/>
@@ -7003,8 +7007,8 @@
       <c r="B46" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="4">
-        <v>280</v>
+      <c r="C46" s="8">
+        <v>140</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -7027,14 +7031,14 @@
       </c>
       <c r="J46" s="2">
         <f t="shared" si="9"/>
-        <v>7.8400000000000011E-2</v>
+        <v>3.9200000000000006E-2</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="10"/>
-        <v>2308.096</v>
+        <v>1154.048</v>
       </c>
       <c r="M46" s="2">
         <v>1000</v>
@@ -7060,7 +7064,7 @@
       </c>
       <c r="T46" s="2">
         <f t="shared" si="12"/>
-        <v>47.04</v>
+        <v>23.52</v>
       </c>
       <c r="U46" s="2">
         <v>150</v>
@@ -7073,15 +7077,15 @@
       </c>
       <c r="X46" s="2">
         <f t="shared" si="17"/>
-        <v>31.360000000000003</v>
+        <v>15.680000000000001</v>
       </c>
       <c r="Y46" s="2">
         <f t="shared" si="18"/>
-        <v>78.400000000000006</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="Z46" s="2">
         <f t="shared" si="13"/>
-        <v>78.400000000000006</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="AA46" s="2">
         <f t="shared" si="14"/>
@@ -7105,11 +7109,11 @@
       </c>
       <c r="AF46" s="5">
         <f t="shared" si="21"/>
-        <v>7.8400000000000011E-2</v>
+        <v>3.9200000000000006E-2</v>
       </c>
       <c r="AG46" s="5">
         <f t="shared" si="22"/>
-        <v>2308.096</v>
+        <v>1154.048</v>
       </c>
       <c r="AH46" s="5">
         <f t="shared" si="23"/>
@@ -7140,8 +7144,8 @@
       <c r="B47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="4">
-        <v>260</v>
+      <c r="C47" s="8">
+        <v>130</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -7164,14 +7168,14 @@
       </c>
       <c r="J47" s="2">
         <f t="shared" si="9"/>
-        <v>7.2800000000000017E-2</v>
+        <v>3.6400000000000009E-2</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="10"/>
-        <v>2143.2320000000004</v>
+        <v>1071.6160000000002</v>
       </c>
       <c r="M47" s="2">
         <v>1000</v>
@@ -7197,7 +7201,7 @@
       </c>
       <c r="T47" s="2">
         <f t="shared" si="12"/>
-        <v>43.680000000000007</v>
+        <v>21.840000000000003</v>
       </c>
       <c r="U47" s="2">
         <v>150</v>
@@ -7210,15 +7214,15 @@
       </c>
       <c r="X47" s="2">
         <f t="shared" si="17"/>
-        <v>29.120000000000005</v>
+        <v>14.560000000000002</v>
       </c>
       <c r="Y47" s="2">
         <f t="shared" si="18"/>
-        <v>72.800000000000011</v>
+        <v>36.400000000000006</v>
       </c>
       <c r="Z47" s="2">
         <f t="shared" si="13"/>
-        <v>72.800000000000011</v>
+        <v>36.400000000000006</v>
       </c>
       <c r="AA47" s="2">
         <f t="shared" si="14"/>
@@ -7242,11 +7246,11 @@
       </c>
       <c r="AF47" s="5">
         <f t="shared" si="21"/>
-        <v>7.2800000000000017E-2</v>
+        <v>3.6400000000000009E-2</v>
       </c>
       <c r="AG47" s="5">
         <f t="shared" si="22"/>
-        <v>2143.2320000000004</v>
+        <v>1071.6160000000002</v>
       </c>
       <c r="AH47" s="5">
         <f t="shared" si="23"/>
@@ -7277,8 +7281,8 @@
       <c r="B48" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="4">
-        <v>240</v>
+      <c r="C48" s="8">
+        <v>120</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -7301,14 +7305,14 @@
       </c>
       <c r="J48" s="2">
         <f t="shared" si="9"/>
-        <v>6.720000000000001E-2</v>
+        <v>3.3600000000000005E-2</v>
       </c>
       <c r="K48" s="2">
         <v>0</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="10"/>
-        <v>1978.3680000000002</v>
+        <v>989.18400000000008</v>
       </c>
       <c r="M48" s="2">
         <v>1000</v>
@@ -7334,7 +7338,7 @@
       </c>
       <c r="T48" s="2">
         <f t="shared" si="12"/>
-        <v>40.32</v>
+        <v>20.16</v>
       </c>
       <c r="U48" s="2">
         <v>150</v>
@@ -7347,15 +7351,15 @@
       </c>
       <c r="X48" s="2">
         <f t="shared" si="17"/>
-        <v>26.880000000000003</v>
+        <v>13.440000000000001</v>
       </c>
       <c r="Y48" s="2">
         <f t="shared" si="18"/>
-        <v>67.2</v>
+        <v>33.6</v>
       </c>
       <c r="Z48" s="2">
         <f t="shared" si="13"/>
-        <v>67.2</v>
+        <v>33.6</v>
       </c>
       <c r="AA48" s="2">
         <f t="shared" si="14"/>
@@ -7379,11 +7383,11 @@
       </c>
       <c r="AF48" s="5">
         <f t="shared" si="21"/>
-        <v>6.720000000000001E-2</v>
+        <v>3.3600000000000005E-2</v>
       </c>
       <c r="AG48" s="5">
         <f t="shared" si="22"/>
-        <v>1978.3680000000002</v>
+        <v>989.18400000000008</v>
       </c>
       <c r="AH48" s="5">
         <f t="shared" si="23"/>
@@ -7414,8 +7418,8 @@
       <c r="B49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="4">
-        <v>220</v>
+      <c r="C49" s="8">
+        <v>110</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -7438,14 +7442,14 @@
       </c>
       <c r="J49" s="2">
         <f t="shared" si="9"/>
-        <v>6.1600000000000009E-2</v>
+        <v>3.0800000000000004E-2</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="10"/>
-        <v>1813.5040000000004</v>
+        <v>906.75200000000018</v>
       </c>
       <c r="M49" s="2">
         <v>1000</v>
@@ -7471,7 +7475,7 @@
       </c>
       <c r="T49" s="2">
         <f t="shared" si="12"/>
-        <v>36.96</v>
+        <v>18.48</v>
       </c>
       <c r="U49" s="2">
         <v>150</v>
@@ -7484,15 +7488,15 @@
       </c>
       <c r="X49" s="2">
         <f t="shared" si="17"/>
-        <v>24.640000000000004</v>
+        <v>12.320000000000002</v>
       </c>
       <c r="Y49" s="2">
         <f t="shared" si="18"/>
-        <v>61.600000000000009</v>
+        <v>30.800000000000004</v>
       </c>
       <c r="Z49" s="2">
         <f t="shared" si="13"/>
-        <v>61.600000000000009</v>
+        <v>30.800000000000004</v>
       </c>
       <c r="AA49" s="2">
         <f t="shared" si="14"/>
@@ -7516,11 +7520,11 @@
       </c>
       <c r="AF49" s="5">
         <f t="shared" si="21"/>
-        <v>6.1600000000000009E-2</v>
+        <v>3.0800000000000004E-2</v>
       </c>
       <c r="AG49" s="5">
         <f t="shared" si="22"/>
-        <v>1813.5040000000004</v>
+        <v>906.75200000000018</v>
       </c>
       <c r="AH49" s="5">
         <f t="shared" si="23"/>
@@ -7551,8 +7555,8 @@
       <c r="B50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="4">
-        <v>200</v>
+      <c r="C50" s="8">
+        <v>100</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -7575,14 +7579,14 @@
       </c>
       <c r="J50" s="2">
         <f t="shared" si="9"/>
-        <v>5.6000000000000008E-2</v>
+        <v>2.8000000000000004E-2</v>
       </c>
       <c r="K50" s="2">
         <v>0</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="10"/>
-        <v>1648.6400000000003</v>
+        <v>824.32000000000016</v>
       </c>
       <c r="M50" s="2">
         <v>1000</v>
@@ -7608,7 +7612,7 @@
       </c>
       <c r="T50" s="2">
         <f t="shared" si="12"/>
-        <v>33.6</v>
+        <v>16.8</v>
       </c>
       <c r="U50" s="2">
         <v>150</v>
@@ -7621,15 +7625,15 @@
       </c>
       <c r="X50" s="2">
         <f t="shared" si="17"/>
-        <v>22.400000000000006</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" si="18"/>
-        <v>56.000000000000007</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="Z50" s="2">
         <f t="shared" si="13"/>
-        <v>56.000000000000007</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="AA50" s="2">
         <f t="shared" si="14"/>
@@ -7653,11 +7657,11 @@
       </c>
       <c r="AF50" s="5">
         <f t="shared" si="21"/>
-        <v>5.6000000000000008E-2</v>
+        <v>2.8000000000000004E-2</v>
       </c>
       <c r="AG50" s="5">
         <f t="shared" si="22"/>
-        <v>1648.6400000000003</v>
+        <v>824.32000000000016</v>
       </c>
       <c r="AH50" s="5">
         <f t="shared" si="23"/>
@@ -7688,8 +7692,8 @@
       <c r="B51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="4">
-        <v>200</v>
+      <c r="C51" s="8">
+        <v>100</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -7712,14 +7716,14 @@
       </c>
       <c r="J51" s="2">
         <f t="shared" si="9"/>
-        <v>5.6000000000000008E-2</v>
+        <v>2.8000000000000004E-2</v>
       </c>
       <c r="K51" s="2">
         <v>0</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="10"/>
-        <v>1648.6400000000003</v>
+        <v>824.32000000000016</v>
       </c>
       <c r="M51" s="2">
         <v>1000</v>
@@ -7745,7 +7749,7 @@
       </c>
       <c r="T51" s="2">
         <f t="shared" si="12"/>
-        <v>33.6</v>
+        <v>16.8</v>
       </c>
       <c r="U51" s="2">
         <v>150</v>
@@ -7758,15 +7762,15 @@
       </c>
       <c r="X51" s="2">
         <f t="shared" si="17"/>
-        <v>22.400000000000006</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="Y51" s="2">
         <f t="shared" si="18"/>
-        <v>56.000000000000007</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="Z51" s="2">
         <f t="shared" si="13"/>
-        <v>56.000000000000007</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="AA51" s="2">
         <f t="shared" si="14"/>
@@ -7790,11 +7794,11 @@
       </c>
       <c r="AF51" s="5">
         <f t="shared" si="21"/>
-        <v>5.6000000000000008E-2</v>
+        <v>2.8000000000000004E-2</v>
       </c>
       <c r="AG51" s="5">
         <f t="shared" si="22"/>
-        <v>1648.6400000000003</v>
+        <v>824.32000000000016</v>
       </c>
       <c r="AH51" s="5">
         <f t="shared" si="23"/>
@@ -7825,8 +7829,8 @@
       <c r="B52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="4">
-        <v>200</v>
+      <c r="C52" s="8">
+        <v>100</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -7849,14 +7853,14 @@
       </c>
       <c r="J52" s="2">
         <f t="shared" si="9"/>
-        <v>5.6000000000000008E-2</v>
+        <v>2.8000000000000004E-2</v>
       </c>
       <c r="K52" s="2">
         <v>0</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="10"/>
-        <v>1648.6400000000003</v>
+        <v>824.32000000000016</v>
       </c>
       <c r="M52" s="2">
         <v>1000</v>
@@ -7882,7 +7886,7 @@
       </c>
       <c r="T52" s="2">
         <f t="shared" si="12"/>
-        <v>33.6</v>
+        <v>16.8</v>
       </c>
       <c r="U52" s="2">
         <v>150</v>
@@ -7895,15 +7899,15 @@
       </c>
       <c r="X52" s="2">
         <f t="shared" si="17"/>
-        <v>22.400000000000006</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="Y52" s="2">
         <f t="shared" si="18"/>
-        <v>56.000000000000007</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="Z52" s="2">
         <f t="shared" si="13"/>
-        <v>56.000000000000007</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="AA52" s="2">
         <f t="shared" si="14"/>
@@ -7927,11 +7931,11 @@
       </c>
       <c r="AF52" s="5">
         <f t="shared" si="21"/>
-        <v>5.6000000000000008E-2</v>
+        <v>2.8000000000000004E-2</v>
       </c>
       <c r="AG52" s="5">
         <f t="shared" si="22"/>
-        <v>1648.6400000000003</v>
+        <v>824.32000000000016</v>
       </c>
       <c r="AH52" s="5">
         <f t="shared" si="23"/>
@@ -7962,8 +7966,8 @@
       <c r="B53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="4">
-        <v>200</v>
+      <c r="C53" s="8">
+        <v>100</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -7986,14 +7990,14 @@
       </c>
       <c r="J53" s="2">
         <f t="shared" si="9"/>
-        <v>5.6000000000000008E-2</v>
+        <v>2.8000000000000004E-2</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="10"/>
-        <v>1648.6400000000003</v>
+        <v>824.32000000000016</v>
       </c>
       <c r="M53" s="2">
         <v>1000</v>
@@ -8019,7 +8023,7 @@
       </c>
       <c r="T53" s="2">
         <f t="shared" si="12"/>
-        <v>33.6</v>
+        <v>16.8</v>
       </c>
       <c r="U53" s="2">
         <v>150</v>
@@ -8032,15 +8036,15 @@
       </c>
       <c r="X53" s="2">
         <f t="shared" si="17"/>
-        <v>22.400000000000006</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="Y53" s="2">
         <f t="shared" si="18"/>
-        <v>56.000000000000007</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="Z53" s="2">
         <f t="shared" si="13"/>
-        <v>56.000000000000007</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="AA53" s="2">
         <f t="shared" si="14"/>
@@ -8064,11 +8068,11 @@
       </c>
       <c r="AF53" s="5">
         <f t="shared" si="21"/>
-        <v>5.6000000000000008E-2</v>
+        <v>2.8000000000000004E-2</v>
       </c>
       <c r="AG53" s="5">
         <f t="shared" si="22"/>
-        <v>1648.6400000000003</v>
+        <v>824.32000000000016</v>
       </c>
       <c r="AH53" s="5">
         <f t="shared" si="23"/>
@@ -8099,8 +8103,8 @@
       <c r="B54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="4">
-        <v>200</v>
+      <c r="C54" s="8">
+        <v>100</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -8123,14 +8127,14 @@
       </c>
       <c r="J54" s="2">
         <f t="shared" si="9"/>
-        <v>5.6000000000000008E-2</v>
+        <v>2.8000000000000004E-2</v>
       </c>
       <c r="K54" s="2">
         <v>0</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="10"/>
-        <v>1648.6400000000003</v>
+        <v>824.32000000000016</v>
       </c>
       <c r="M54" s="2">
         <v>1000</v>
@@ -8156,7 +8160,7 @@
       </c>
       <c r="T54" s="2">
         <f t="shared" si="12"/>
-        <v>33.6</v>
+        <v>16.8</v>
       </c>
       <c r="U54" s="2">
         <v>150</v>
@@ -8169,15 +8173,15 @@
       </c>
       <c r="X54" s="2">
         <f t="shared" si="17"/>
-        <v>22.400000000000006</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="Y54" s="2">
         <f t="shared" si="18"/>
-        <v>56.000000000000007</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="Z54" s="2">
         <f t="shared" si="13"/>
-        <v>56.000000000000007</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="AA54" s="2">
         <f t="shared" si="14"/>
@@ -8201,11 +8205,11 @@
       </c>
       <c r="AF54" s="5">
         <f t="shared" si="21"/>
-        <v>5.6000000000000008E-2</v>
+        <v>2.8000000000000004E-2</v>
       </c>
       <c r="AG54" s="5">
         <f t="shared" si="22"/>
-        <v>1648.6400000000003</v>
+        <v>824.32000000000016</v>
       </c>
       <c r="AH54" s="5">
         <f t="shared" si="23"/>
@@ -8236,8 +8240,8 @@
       <c r="B55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="4">
-        <v>200</v>
+      <c r="C55" s="8">
+        <v>100</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -8260,14 +8264,14 @@
       </c>
       <c r="J55" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K55" s="2">
         <v>0</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="10"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="M55" s="2">
         <v>1000</v>
@@ -8293,7 +8297,7 @@
       </c>
       <c r="T55" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U55" s="2">
         <v>150</v>
@@ -8306,15 +8310,15 @@
       </c>
       <c r="X55" s="2">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y55" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z55" s="2">
         <f t="shared" si="13"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA55" s="2">
         <f t="shared" si="14"/>
@@ -8338,11 +8342,11 @@
       </c>
       <c r="AF55" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG55" s="5">
         <f t="shared" si="22"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="AH55" s="5">
         <f t="shared" si="23"/>
@@ -8373,8 +8377,8 @@
       <c r="B56" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="4">
-        <v>200</v>
+      <c r="C56" s="8">
+        <v>100</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -8397,14 +8401,14 @@
       </c>
       <c r="J56" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K56" s="2">
         <v>0</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="10"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="M56" s="2">
         <v>1000</v>
@@ -8430,7 +8434,7 @@
       </c>
       <c r="T56" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U56" s="2">
         <v>150</v>
@@ -8443,15 +8447,15 @@
       </c>
       <c r="X56" s="2">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y56" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z56" s="2">
         <f t="shared" si="13"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA56" s="2">
         <f t="shared" si="14"/>
@@ -8475,11 +8479,11 @@
       </c>
       <c r="AF56" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG56" s="5">
         <f t="shared" si="22"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="AH56" s="5">
         <f t="shared" si="23"/>
@@ -8510,8 +8514,8 @@
       <c r="B57" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="4">
-        <v>200</v>
+      <c r="C57" s="8">
+        <v>100</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -8534,14 +8538,14 @@
       </c>
       <c r="J57" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K57" s="2">
         <v>0</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="10"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="M57" s="2">
         <v>1000</v>
@@ -8567,7 +8571,7 @@
       </c>
       <c r="T57" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U57" s="2">
         <v>150</v>
@@ -8580,15 +8584,15 @@
       </c>
       <c r="X57" s="2">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y57" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z57" s="2">
         <f t="shared" si="13"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA57" s="2">
         <f t="shared" si="14"/>
@@ -8612,11 +8616,11 @@
       </c>
       <c r="AF57" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG57" s="5">
         <f t="shared" si="22"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="AH57" s="5">
         <f t="shared" si="23"/>
@@ -8647,8 +8651,8 @@
       <c r="B58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="4">
-        <v>200</v>
+      <c r="C58" s="8">
+        <v>100</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -8671,14 +8675,14 @@
       </c>
       <c r="J58" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K58" s="2">
         <v>0</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="10"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="M58" s="2">
         <v>1000</v>
@@ -8704,7 +8708,7 @@
       </c>
       <c r="T58" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U58" s="2">
         <v>150</v>
@@ -8717,15 +8721,15 @@
       </c>
       <c r="X58" s="2">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y58" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z58" s="2">
         <f t="shared" si="13"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA58" s="2">
         <f t="shared" si="14"/>
@@ -8749,11 +8753,11 @@
       </c>
       <c r="AF58" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG58" s="5">
         <f t="shared" si="22"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="AH58" s="5">
         <f t="shared" si="23"/>
@@ -8784,8 +8788,8 @@
       <c r="B59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="4">
-        <v>200</v>
+      <c r="C59" s="8">
+        <v>100</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -8808,14 +8812,14 @@
       </c>
       <c r="J59" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K59" s="2">
         <v>0</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="10"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="M59" s="2">
         <v>1000</v>
@@ -8841,7 +8845,7 @@
       </c>
       <c r="T59" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U59" s="2">
         <v>150</v>
@@ -8854,15 +8858,15 @@
       </c>
       <c r="X59" s="2">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y59" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z59" s="2">
         <f t="shared" si="13"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA59" s="2">
         <f t="shared" si="14"/>
@@ -8886,11 +8890,11 @@
       </c>
       <c r="AF59" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG59" s="5">
         <f t="shared" si="22"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="AH59" s="5">
         <f t="shared" si="23"/>
@@ -8921,8 +8925,8 @@
       <c r="B60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="4">
-        <v>200</v>
+      <c r="C60" s="8">
+        <v>100</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -8945,14 +8949,14 @@
       </c>
       <c r="J60" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K60" s="2">
         <v>0</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="10"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="M60" s="2">
         <v>1000</v>
@@ -8978,7 +8982,7 @@
       </c>
       <c r="T60" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U60" s="2">
         <v>150</v>
@@ -8991,15 +8995,15 @@
       </c>
       <c r="X60" s="2">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y60" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z60" s="2">
         <f t="shared" si="13"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA60" s="2">
         <f t="shared" si="14"/>
@@ -9023,11 +9027,11 @@
       </c>
       <c r="AF60" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG60" s="5">
         <f t="shared" si="22"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="AH60" s="5">
         <f t="shared" si="23"/>
@@ -9058,8 +9062,8 @@
       <c r="B61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="4">
-        <v>200</v>
+      <c r="C61" s="8">
+        <v>100</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -9082,14 +9086,14 @@
       </c>
       <c r="J61" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K61" s="2">
         <v>0</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="10"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="M61" s="2">
         <v>1000</v>
@@ -9115,7 +9119,7 @@
       </c>
       <c r="T61" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U61" s="2">
         <v>150</v>
@@ -9128,15 +9132,15 @@
       </c>
       <c r="X61" s="2">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y61" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z61" s="2">
         <f t="shared" si="13"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA61" s="2">
         <f t="shared" si="14"/>
@@ -9160,11 +9164,11 @@
       </c>
       <c r="AF61" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG61" s="5">
         <f t="shared" si="22"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="AH61" s="5">
         <f t="shared" si="23"/>
@@ -9195,8 +9199,8 @@
       <c r="B62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="4">
-        <v>200</v>
+      <c r="C62" s="8">
+        <v>100</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -9219,14 +9223,14 @@
       </c>
       <c r="J62" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K62" s="2">
         <v>0</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="10"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="M62" s="2">
         <v>1000</v>
@@ -9252,7 +9256,7 @@
       </c>
       <c r="T62" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U62" s="2">
         <v>150</v>
@@ -9265,15 +9269,15 @@
       </c>
       <c r="X62" s="2">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y62" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z62" s="2">
         <f t="shared" si="13"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA62" s="2">
         <f t="shared" si="14"/>
@@ -9297,11 +9301,11 @@
       </c>
       <c r="AF62" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG62" s="5">
         <f t="shared" si="22"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="AH62" s="5">
         <f t="shared" si="23"/>
@@ -9332,8 +9336,8 @@
       <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="4">
-        <v>200</v>
+      <c r="C63" s="8">
+        <v>100</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -9356,14 +9360,14 @@
       </c>
       <c r="J63" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K63" s="2">
         <v>0</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="10"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="M63" s="2">
         <v>1000</v>
@@ -9389,7 +9393,7 @@
       </c>
       <c r="T63" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U63" s="2">
         <v>150</v>
@@ -9402,15 +9406,15 @@
       </c>
       <c r="X63" s="2">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y63" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z63" s="2">
         <f t="shared" si="13"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA63" s="2">
         <f t="shared" si="14"/>
@@ -9434,11 +9438,11 @@
       </c>
       <c r="AF63" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG63" s="5">
         <f t="shared" si="22"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="AH63" s="5">
         <f t="shared" si="23"/>
@@ -9469,8 +9473,8 @@
       <c r="B64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="4">
-        <v>200</v>
+      <c r="C64" s="8">
+        <v>100</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -9493,14 +9497,14 @@
       </c>
       <c r="J64" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K64" s="2">
         <v>0</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="10"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="M64" s="2">
         <v>1000</v>
@@ -9526,7 +9530,7 @@
       </c>
       <c r="T64" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U64" s="2">
         <v>150</v>
@@ -9539,15 +9543,15 @@
       </c>
       <c r="X64" s="2">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y64" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z64" s="2">
         <f t="shared" si="13"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA64" s="2">
         <f t="shared" si="14"/>
@@ -9571,11 +9575,11 @@
       </c>
       <c r="AF64" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG64" s="5">
         <f t="shared" si="22"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="AH64" s="5">
         <f t="shared" si="23"/>
@@ -9606,8 +9610,8 @@
       <c r="B65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="4">
-        <v>200</v>
+      <c r="C65" s="8">
+        <v>100</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -9630,14 +9634,14 @@
       </c>
       <c r="J65" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K65" s="2">
         <v>0</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="10"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="M65" s="2">
         <v>1000</v>
@@ -9663,7 +9667,7 @@
       </c>
       <c r="T65" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U65" s="2">
         <v>150</v>
@@ -9676,15 +9680,15 @@
       </c>
       <c r="X65" s="2">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y65" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z65" s="2">
         <f t="shared" si="13"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA65" s="2">
         <f t="shared" si="14"/>
@@ -9708,11 +9712,11 @@
       </c>
       <c r="AF65" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG65" s="5">
         <f t="shared" si="22"/>
-        <v>2060.8000000000002</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="AH65" s="5">
         <f t="shared" si="23"/>
@@ -9743,8 +9747,8 @@
       <c r="B66" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="4">
-        <v>2500</v>
+      <c r="C66" s="8">
+        <v>1250</v>
       </c>
       <c r="D66" s="4">
         <v>0.8</v>
@@ -9767,14 +9771,14 @@
       </c>
       <c r="J66" s="2">
         <f t="shared" si="9"/>
-        <v>0.70000000000000007</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="K66" s="2">
         <v>0</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="10"/>
-        <v>20608.000000000004</v>
+        <v>10304.000000000002</v>
       </c>
       <c r="M66" s="2">
         <v>1000</v>
@@ -9800,7 +9804,7 @@
       </c>
       <c r="T66" s="2">
         <f t="shared" si="12"/>
-        <v>420.00000000000006</v>
+        <v>210.00000000000003</v>
       </c>
       <c r="U66" s="2">
         <v>150</v>
@@ -9813,15 +9817,15 @@
       </c>
       <c r="X66" s="2">
         <f t="shared" si="17"/>
-        <v>280.00000000000006</v>
+        <v>140.00000000000003</v>
       </c>
       <c r="Y66" s="2">
         <f t="shared" si="18"/>
-        <v>700.00000000000011</v>
+        <v>350.00000000000006</v>
       </c>
       <c r="Z66" s="2">
         <f t="shared" si="13"/>
-        <v>700.00000000000011</v>
+        <v>350.00000000000006</v>
       </c>
       <c r="AA66" s="2">
         <f t="shared" si="14"/>
@@ -9845,11 +9849,11 @@
       </c>
       <c r="AF66" s="5">
         <f t="shared" si="21"/>
-        <v>0.70000000000000007</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="AG66" s="5">
         <f t="shared" si="22"/>
-        <v>20608.000000000004</v>
+        <v>10304.000000000002</v>
       </c>
       <c r="AH66" s="5">
         <f t="shared" si="23"/>
@@ -9880,8 +9884,8 @@
       <c r="B67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="4">
-        <v>2000</v>
+      <c r="C67" s="8">
+        <v>1000</v>
       </c>
       <c r="D67" s="4">
         <v>0.8</v>
@@ -9904,14 +9908,14 @@
       </c>
       <c r="J67" s="2">
         <f t="shared" ref="J67:J70" si="28">C67*G67/1000</f>
-        <v>0.56000000000000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K67" s="2">
         <v>0</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" ref="L67:L70" si="29">C67*G67*(S67*Q67 + W67*V67)*0.08</f>
-        <v>16486.400000000001</v>
+        <v>8243.2000000000007</v>
       </c>
       <c r="M67" s="2">
         <v>1000</v>
@@ -9937,7 +9941,7 @@
       </c>
       <c r="T67" s="2">
         <f t="shared" ref="T67:T70" si="31">C67*G67*S67</f>
-        <v>336</v>
+        <v>168</v>
       </c>
       <c r="U67" s="2">
         <v>150</v>
@@ -9950,15 +9954,15 @@
       </c>
       <c r="X67" s="2">
         <f t="shared" si="17"/>
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="Y67" s="2">
         <f t="shared" si="18"/>
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="Z67" s="2">
         <f t="shared" ref="Z67:Z70" si="32">Y67</f>
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="AA67" s="2">
         <f t="shared" ref="AA67:AA70" si="33">Z67-Y67</f>
@@ -9982,11 +9986,11 @@
       </c>
       <c r="AF67" s="5">
         <f t="shared" si="21"/>
-        <v>0.56000000000000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AG67" s="5">
         <f t="shared" si="22"/>
-        <v>16486.400000000001</v>
+        <v>8243.2000000000007</v>
       </c>
       <c r="AH67" s="5">
         <f t="shared" si="23"/>
@@ -10017,8 +10021,8 @@
       <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="4">
-        <v>800</v>
+      <c r="C68" s="8">
+        <v>400</v>
       </c>
       <c r="D68" s="4">
         <v>0.8</v>
@@ -10041,14 +10045,14 @@
       </c>
       <c r="J68" s="2">
         <f t="shared" si="28"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K68" s="2">
         <v>0</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="29"/>
-        <v>5888</v>
+        <v>2944</v>
       </c>
       <c r="M68" s="2">
         <v>1000</v>
@@ -10074,7 +10078,7 @@
       </c>
       <c r="T68" s="2">
         <f t="shared" si="31"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U68" s="2">
         <v>150</v>
@@ -10087,15 +10091,15 @@
       </c>
       <c r="X68" s="2">
         <f t="shared" ref="X68:X70" si="37">C68*G68*W68</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Y68" s="2">
         <f t="shared" si="18"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z68" s="2">
         <f t="shared" si="32"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA68" s="2">
         <f t="shared" si="33"/>
@@ -10119,11 +10123,11 @@
       </c>
       <c r="AF68" s="5">
         <f t="shared" si="21"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AG68" s="5">
         <f t="shared" si="22"/>
-        <v>5888</v>
+        <v>2944</v>
       </c>
       <c r="AH68" s="5">
         <f t="shared" si="23"/>
@@ -10154,8 +10158,8 @@
       <c r="B69" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="4">
-        <v>500</v>
+      <c r="C69" s="8">
+        <v>250</v>
       </c>
       <c r="D69" s="4">
         <v>0.8</v>
@@ -10178,14 +10182,14 @@
       </c>
       <c r="J69" s="2">
         <f t="shared" si="28"/>
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K69" s="2">
         <v>0</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" si="29"/>
-        <v>3680</v>
+        <v>1840</v>
       </c>
       <c r="M69" s="2">
         <v>1000</v>
@@ -10211,7 +10215,7 @@
       </c>
       <c r="T69" s="2">
         <f t="shared" si="31"/>
-        <v>75</v>
+        <v>37.5</v>
       </c>
       <c r="U69" s="2">
         <v>150</v>
@@ -10224,15 +10228,15 @@
       </c>
       <c r="X69" s="2">
         <f t="shared" si="37"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Y69" s="2">
         <f t="shared" si="18"/>
-        <v>125</v>
+        <v>62.5</v>
       </c>
       <c r="Z69" s="2">
         <f t="shared" si="32"/>
-        <v>125</v>
+        <v>62.5</v>
       </c>
       <c r="AA69" s="2">
         <f t="shared" si="33"/>
@@ -10256,11 +10260,11 @@
       </c>
       <c r="AF69" s="5">
         <f t="shared" si="21"/>
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AG69" s="5">
         <f t="shared" si="22"/>
-        <v>3680</v>
+        <v>1840</v>
       </c>
       <c r="AH69" s="5">
         <f t="shared" si="23"/>
@@ -10291,8 +10295,8 @@
       <c r="B70" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="4">
-        <v>300</v>
+      <c r="C70" s="8">
+        <v>150</v>
       </c>
       <c r="D70" s="4">
         <v>0.8</v>
